--- a/Lab02/anylise.xlsx
+++ b/Lab02/anylise.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>M=20000</t>
   </si>
@@ -135,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -388,11 +388,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -420,6 +459,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2034,11 +2078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47303296"/>
-        <c:axId val="47355776"/>
+        <c:axId val="98126464"/>
+        <c:axId val="98136448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47303296"/>
+        <c:axId val="98126464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47355776"/>
+        <c:crossAx val="98136448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2056,7 +2100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47355776"/>
+        <c:axId val="98136448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47303296"/>
+        <c:crossAx val="98126464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2909,11 +2953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125735296"/>
-        <c:axId val="125736832"/>
+        <c:axId val="65747968"/>
+        <c:axId val="65757952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125735296"/>
+        <c:axId val="65747968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,7 +2967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125736832"/>
+        <c:crossAx val="65757952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2931,7 +2975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125736832"/>
+        <c:axId val="65757952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +2986,1871 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125735296"/>
+        <c:crossAx val="65747968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=20000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$37:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.5348980238427898E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2037122619381702E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.06470639651483E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5518589782340201E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6016700709651101E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6489617817812201E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1875618772667E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=18000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$37:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.79801147495117E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1002344329602999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.06319136239326E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9213155721604399E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2467892769194201E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0565005391838501E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6948077208797402E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=16000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$37:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.18299805439546E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1974291904681504E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4205641243681999E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5235592760285301E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0011033009704201E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.37846740455707E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.58863944531768E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=14000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$37:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8537354015181801E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0751219018455399E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0593667269770198E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3105967589614602E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4613310990038996E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4037675133072199E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.6393886122487599E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=12000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$37:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.83450494737295E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0887034784335899E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5435631029672502E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.14911927683489E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9617628955258299E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3982277410398803E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.43707997556843E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=10000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$37:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.46961341929379E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0902645526869302E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.7345384143166399E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>6.1362414172127095E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>2.6538542399149402E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2946810300346798E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6699309697038902E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="40109568"/>
+        <c:axId val="40111104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="40109568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40111104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40111104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40109568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15134973753280839"/>
+          <c:y val="7.4548702245552642E-2"/>
+          <c:w val="0.58246959755030625"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=20000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$37:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.5348980238427898E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2037122619381702E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.06470639651483E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5518589782340201E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6016700709651101E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6489617817812201E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1875618772667E-7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.23948311734968E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>3.9472010654101001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9.9462688016147993E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.33769896873973</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.3487639873092001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3.6742328172131402</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.6661239331148101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=18000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$37:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.79801147495117E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1002344329602999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.06319136239326E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9213155721604399E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2467892769194201E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0565005391838501E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6948077208797402E-6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.3450707140594101E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>7.0022054222308103E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.7084973265054298E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.9705682857979701</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.8963807293668999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2.3842378254101502</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.6755974669209701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=16000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$37:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.18299805439546E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1974291904681504E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4205641243681999E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5235592760285301E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0011033009704201E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.37846740455707E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.58863944531768E-5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4.0126079563248499E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.3918087852553201E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.154354708408936</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.82326367773967102</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.3264821023771098</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2.2345895710215098</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>4.0537577780611596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=14000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$37:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.8537354015181801E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0751219018455399E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0593667269770198E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3105967589614602E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4613310990038996E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4037675133072199E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.6393886122487599E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.94117396813423E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>9.6065888800623105E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.40211807985579401</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.11397167800333</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.5923969550161798</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.6788350160324801</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>4.0467216877664898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=12000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$37:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.83450494737295E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0887034784335899E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5435631029672502E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.14911927683489E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9617628955258299E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3982277410398803E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.43707997556843E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.64833276788252E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.145359369721067</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.56076849544689</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.4571303671628799</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.57360400981659</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3.4190663152515799</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.0225560462799002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=10000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$37:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.46961341929379E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0902645526869302E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.7345384143166399E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>6.1362414172127095E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>2.6538542399149402E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2946810300346798E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6699309697038902E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1427128870897099E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11503980033302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.795128888327578</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3432477565994101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3931328451713401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4452739145110201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.88954817638938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=8000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$37:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.4140244224235605E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0490951201046801E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>2.1378179905630502E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5835402876820299E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.68030414989117E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9848507512587504E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6761165063851603E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17574149965122501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27492583231950701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74890003689387497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55581581579815798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9493622938662101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.28260248696238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4578215706249802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=6000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$37:$I$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.33244879978967701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7214067949312703E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6542731245291601E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6279378699973501E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4018007904249E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.55509288181263E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.222267952482856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.159996075433016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50109315812050703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7403975313076401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8484041453378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5363673793671202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2514381354142801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9183332872711101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=4000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$J$37:$J$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.57723080715891495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38529744188967602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17962852245184399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.172730242104391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.120429082272309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28901222939125798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.212916685192059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.721128339552223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.15997808184346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.30043752379285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4519500629639999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6063191580385698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5291758077012396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6356384085638802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(M=2000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$37:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$K$37:$K$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.6278144976919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17861572895488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59525855114872195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5492899305060901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.20866971435251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.20214224045775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8323980795097401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.737038835927601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8989855321989602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25830498496261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9458387984178498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7356756618290801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2417685956164801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9461191761871199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="39450496"/>
+        <c:axId val="39452032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="39450496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39452032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39452032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39450496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3006,7 +4914,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3021,6 +4929,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3316,17 +5284,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD41" sqref="AD41"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
@@ -3334,6 +5302,7 @@
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4422,7 +6391,7 @@
         <v>0.60378738025035705</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -4434,6 +6403,636 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3.5348980238427898E-5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.79801147495117E-4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>6.18299805439546E-4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.8537354015181801E-3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6.83450494737295E-3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.46961341929379E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>8.4140244224235605E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.33244879978967701</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.57723080715891495</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1.6278144976919</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3.2037122619381702E-7</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.1002344329602999E-6</v>
+      </c>
+      <c r="D38" s="31">
+        <v>6.1974291904681504E-6</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5.0751219018455399E-5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.0887034784335899E-4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2.0902645526869302E-3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.0490951201046801E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>4.7214067949312703E-2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.38529744188967602</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1.17861572895488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.06470639651483E-8</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4.06319136239326E-8</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8.4205641243681999E-7</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.0593667269770198E-6</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2.5435631029672502E-5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1.7345384143166399E-4</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2.1378179905630502E-3</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.6542731245291601E-2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.17962852245184399</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.59525855114872195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4.5518589782340201E-10</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.9213155721604399E-8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.5235592760285301E-7</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.3105967589614602E-6</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.14911927683489E-5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>6.1362414172127095E-5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.5835402876820299E-3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.6279378699973501E-3</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.172730242104391</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1.5492899305060901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>8</v>
+      </c>
+      <c r="B41" s="30">
+        <v>1.6016700709651101E-9</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2.2467892769194201E-8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3.0011033009704201E-7</v>
+      </c>
+      <c r="E41" s="2">
+        <v>7.4613310990038996E-7</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2.9617628955258299E-5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2.6538542399149402E-4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>9.68030414989117E-4</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2.4018007904249E-2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.120429082272309</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1.20866971435251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2.6489617817812201E-8</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3.0565005391838501E-7</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2.37846740455707E-6</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.4037675133072199E-5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>5.3982277410398803E-5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3.2946810300346798E-4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.9848507512587504E-3</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1.55509288181263E-2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.28901222939125798</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1.20214224045775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3.1875618772667E-7</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6.6948077208797402E-6</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2.58863944531768E-5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2.6393886122487599E-4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1.43707997556843E-3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4.6699309697038902E-3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3.6761165063851603E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.222267952482856</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.212916685192059</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2.8323980795097401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.23948311734968E-4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.3450707140594101E-4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4.0126079563248499E-4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2.94117396813423E-3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.64833276788252E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1.1427128870897099E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.17574149965122501</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.159996075433016</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.721128339552223</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.737038835927601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3.9472010654101001E-3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7.0022054222308103E-3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.3918087852553201E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>9.6065888800623105E-3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.145359369721067</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.11503980033302</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.27492583231950701</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.50109315812050703</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1.15997808184346</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2.8989855321989602</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9.9462688016147993E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.7084973265054298E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.154354708408936</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.40211807985579401</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.56076849544689</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.795128888327578</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.74890003689387497</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1.7403975313076401</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2.30043752379285</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2.25830498496261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>14</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.33769896873973</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.9705682857979701</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.82326367773967102</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.11397167800333</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.4571303671628799</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2.3432477565994101</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.55581581579815798</v>
+      </c>
+      <c r="I47" s="1">
+        <v>3.8484041453378</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2.4519500629639999</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2.9458387984178498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>15</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3.3487639873092001</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.8963807293668999</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.3264821023771098</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.5923969550161798</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.57360400981659</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2.3931328451713401</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.9493622938662101</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2.5363673793671202</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3.6063191580385698</v>
+      </c>
+      <c r="K48" s="1">
+        <v>2.7356756618290801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3.6742328172131402</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.3842378254101502</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.2345895710215098</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.6788350160324801</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3.4190663152515799</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3.4452739145110201</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2.28260248696238</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3.2514381354142801</v>
+      </c>
+      <c r="J49" s="1">
+        <v>4.5291758077012396</v>
+      </c>
+      <c r="K49" s="1">
+        <v>3.2417685956164801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>17</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3.6661239331148101</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3.6755974669209701</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4.0537577780611596</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4.0467216877664898</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3.0225560462799002</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2.88954817638938</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2.4578215706249802</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2.9183332872711101</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3.6356384085638802</v>
+      </c>
+      <c r="K50" s="1">
+        <v>3.9461191761871199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>18</v>
+      </c>
+      <c r="B51" s="1">
+        <v>21.636774938519999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>11.943513248619601</v>
+      </c>
+      <c r="D51" s="1">
+        <v>14.9777742812448</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9.3982617475785499</v>
+      </c>
+      <c r="F51" s="1">
+        <v>17.200755954908502</v>
+      </c>
+      <c r="G51" s="1">
+        <v>36.503941098725697</v>
+      </c>
+      <c r="H51" s="1">
+        <v>15.325471762882501</v>
+      </c>
+      <c r="I51" s="1">
+        <v>16.8655516706492</v>
+      </c>
+      <c r="J51" s="1">
+        <v>16.7242393123699</v>
+      </c>
+      <c r="K51" s="1">
+        <v>7.8697222944622496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="20">
+        <v>19</v>
+      </c>
+      <c r="B52" s="16">
+        <v>1573.8251369187601</v>
+      </c>
+      <c r="C52" s="16">
+        <v>14435.79943015</v>
+      </c>
+      <c r="D52" s="16">
+        <v>19439.245693424898</v>
+      </c>
+      <c r="E52" s="16">
+        <v>15077.5330228292</v>
+      </c>
+      <c r="F52" s="16">
+        <v>334314.18352887599</v>
+      </c>
+      <c r="G52" s="16">
+        <v>23243.0930683898</v>
+      </c>
+      <c r="H52" s="16">
+        <v>6754.7301171794597</v>
+      </c>
+      <c r="I52" s="16">
+        <v>2022.06684232456</v>
+      </c>
+      <c r="J52" s="16">
+        <v>325777.48464658798</v>
+      </c>
+      <c r="K52" s="16">
+        <v>37610.043417159497</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
